--- a/Mercado.xlsx
+++ b/Mercado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="535">
   <si>
     <t xml:space="preserve">Treinamento</t>
   </si>
@@ -942,7 +942,948 @@
 quanto guedes já queimou dos usd 380 bilhões,  que o pt criou de poupança ao país?</t>
   </si>
   <si>
+    <t xml:space="preserve">vou sair do trabalho e ir direto pro mercado, quem diria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"essa muié eu paguei na combosa quando eu trampava no mercado, so que ela é  casada, ai deu ruim... pro marido dela ne" kkkkkkk auge do meu dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fui no mercado não resisti e trouxe todinho. 
+gente, quanto tempo faz que não tomo um todinho, amo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@pablospyer petróleo, mercado... é pressão e blefe o tempo todo... té parece que cêis não conhecem?!?!?!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sou tão retardada que faço darem risada até na fila do mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acabou o papel higiênico no mercado aqui em lisboa. mano, é gripe, não diarreia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @tretisoficial: pré-jogo | #colxcap #libertadores #trétis
+furacão está se movimentando no mercado da bola. segundo informações do @glob…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surto de coronavírus em portugal, e minhas únicas preocupações são:
+-tomara que a @mariliamreal não cancele o show
+-tomara que eu consiga achar comida no mercado, para estocar em casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@joongvr primeiramente que o maior mercado musical do mundo é o us. além disso nós estamos em 2020, os números do bts digital e físico são astronômicos no mundo inteiro, não é atoa que o álbum deles é o álbum coreano mais bem vendido no mundo. resta vocês aceitarem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@uorrembife exato, 15 anos de mercado aqui, nunca vi isso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@lets_dex e vamos sacudir o mercado, tirar e colocar.
+vamos aproveitar.
+não é todo dia que tem pandemia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amg se vc entender mesmo o contexto, nos &amp;gt;digitais&amp;lt; eles são fortes demais e não é nem um pouco impossível eles superarem on no mercado asiático, mas vcs se ofendem com o pensamento do bts ter uma competição ai é foda https://t.co/hvskf3tlcp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maria tá um amor cara, tá crescendo rápido, daqui a pouco vamos lá levar ela no mercado pra comprarmos algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@muitoalemck @paulodemchuk @gigi_dutra @parox40 @midia_ancap @crgfalon @kaodeq @idkfa15 @rodrigo_mova @felipelanhi livre mercado fechado na itália https://t.co/yhnfepzkgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @fefys_doliveira: isso é brincadeira, né? estamos novamente perdendo uma fatia do mercado para produto chinês 🤣🤣🤣🤣 https://t.co/qqwalep0…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dafcamp @snapsnapping @ntanpedro @navinluvv kkkkkkkkkkkk a gente foi dar oi pra ele no mercado e tadinho ele ficou com vergonha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estou vendo muitos tuites nos termos "quero ver a faria lima em chamas", "e aí paulo guedes", "e o livre mercado hein? hahaha" etc.
+todos manifestando uma alegria com o desespero dos engravatados, aproveitando o quentinho daquele schadenfreude gostoso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @haddad_fernando: única forma da economia se recuperar é se governo bolsonaro fizer investimento, diz lula https://t.co/wlfequr5pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">não temos a opinião do presidente jair bolsonaro sobre pandemia, queda da bolsa, mercado alarmado, pec emergencial-temos a opinião de jb sobre o abraço de draúzio v. com travesti condenada e cumprindo pena já a oito anos @moniquejbl @_michellymart @janaina_linda09 @loys_santana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@natan_amorim27 @lmjkannmel @daniielamoriim @isentoes2 (+) de 1 milhão de barris de petróleo por dia para 13 milhões de barris então conforme a teoria de oferta e demanda possui mais mercadoria no mercado daí o preço cai ficou pra 20 dólares . segundo motivo , além da pandemia q está rolando estamos com suspeita de golpe certo?! (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @gazetadopovo: guilherme fiuza: quem quer crise?
+@gfiuza_oficial comenta o caos na bolsa internacional e a crise do petróleo. para fiuz…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assisti,ontem, gestores tentando animar o mercado numa apresentação  corretora .acho que não conseguiram. estavam abatidos .....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">então você pode até comemorar o pânico no mercado, mas saiba que o clássico do cancioneiro popular brasileiro continua 100% válido. https://t.co/lhclxowarl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @dudu: atenção 
+sua cidade está no epicentro do coronavirus e você precisará ficar um mês sem sair de casa
+o governo só permite que voc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@abrahamweint essa doença veio pra mexer na economia do mundo.
+como uma espécie de gripe que mata menos que pneumonia pode m3xer no mercado mundial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e eu que previ a crise e zerei todas as minhas posições no mercado financeiro no primeiro dia do corona vírus.. flls, ações, bitcoins, tesouro.. tudo! só essa semana já teve 2 circuit break na bolsa.. ibov sangrando.. 🔻🆘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parte importante do atual movimento vem da incredulidade (e do medo consequente) que o mercado tem frente à evidente ineficácia do mesmo remédio prescrito desde 2008. liquidez abundante e estímulo monetário via juros. em função do quão sem precedente foi o ciclo (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - ouro é uma otima proteção em momentos de estresse. a correlação inversa com o mercado de ações faz dele um ótimo instrumento de hedge (proteção). https://t.co/cfrsjxir0z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@brazilianequity mercado vive de aparências rsrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rodrigofaria94 @berniesanders sua confiança no mercado ignora a enorme corrupção e destruição que a saúde privada, que coloca literalmente taxas de valor e faz pessoas pobres dependerem de uma caridade opcional, colocando um valor monetário na vida das pessoas, só mostra sua desumanidade. você reclama-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@tiagogreis provavelmente essas duas últimas quedas são só a ponta do iceberg. quem sabe como realmente funciona o mercado de renda variável, compra. quem não sabe e tem medo, vende. (compra desde que tenha bons fundamentos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @rabiscododon: "se você não está disposto a reagir com equanimidade a uma queda de 50% no preço de mercado duas ou três vezes por século…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor de mercado da stablecoin da @binance ultrapassa us$ 100 milhões https://t.co/tcsoxrwfpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @onaredonda: em 2016, de jong valia 600 mil euros no mercado. hoje, em 2020, o mesmo vale 90 milhões de euros. https://t.co/jud5xu7atg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @estadao: &amp;gt;@estadaoeconomia bolsa brasileira fecha em queda de mais de 12% e dólar alcança r$ 4,72 em dia de caos no mercado https://t.c…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caralho a porra do mercado nao abre pqp quero ganha dinheiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor de mercado da stablecoin da binance ultrapassa us$ 100 milhões
+https://t.co/h18w4agwei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @danielpmerj: por @gfiuza_oficial 
+"a resistência democrápula tentou grudar a queda do mercado mundial na equipe econômica brasileira...…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parafraseando buffett: esse mercado tá começando a me deixar como um tarado no putêro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @edmundozen: petrobrás perde r$ 91 bilhões em valor de mercado em apenas 1 dia: 
+com queda no preço internacional do petróleo, estatal p…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @0vigilante0: o mercado nåo vai acabar,muito
+ menos o capitalismo
+o corona é apenas uma gripe.99% sairão ilesos como toda gripe.
+não e…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @homerogomes: para a matilha neoliberal no mercado e na mídia, pobre não tem direito à migalha do governo. mas como? são 200 milhões em…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoje eu vou no mercado sem falta😌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tô aqui no mercado e o moço que me atendeu é lindo dms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vida adulta é esse aplicativo de lista de mercado https://t.co/tyxgfwldea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pow vou ter q ir no mercado,tomara q não esteja cheio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aqui...nas relvas...na terrinha...as velhinhas já esgotaram cenas no mini mercado....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indo ao mercado. querem algo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @caiobtncrt: esse é o principal problema. ei e facebook vendem titica na cabeça do mercado e acham que uma transmissão em massa assim co…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quando chego no mercado e esqueço o que minha mãe pediu pra eu ir lá comprar https://t.co/hszagfqivq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@otourodeouro sempre, no mercado desde 1986, mais uma crise pra coleção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ouvindo o fimzinho do episódio 25 do caso evandro no caixa do mercado, quem me olhasse perceberia o momento exato em que minha alma deixava meu corpo
+c a r a l h o</t>
+  </si>
+  <si>
     <t xml:space="preserve">Teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @folha: congresso impõe derrota ao governo e eleva gasto de benefício assistencial em r$ 20 bi por ano https://t.co/n2h9u28ujl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@xpinvestimentos respondeu sim é os emocionados e afetados psicologicamente com o mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gente, olha como o mercado é louco: esta semana começa com o pior dia das últimas décadas, um circuit break e tal. depois, tivemos o melhor dia das últimas décadas, tudo decolou! agora, neste exato momento, estamos em outro circuit break! que doideira! https://t.co/zvyv5t8hlw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @stephanevw: o maior mercado da cidade tá com prateleiras vazias 
+a galera tá estocando comida por causa do coronavirus
+e vamos de apo…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compreenda sua caixa de ferramentas e use-a sem moderação. o caminho é longo mas altamente gratificante. não diminua o valor do esforço, muito menos o alheio. respeito é moeda de troca e o mercado não costuma perdoar quem não o respeita. por que seria fácil para você? (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@uol o governo dos banqueiros, rentistas, ou seja, dos verdadeiros sanguessugas. meu deus! eu fico impressionado como ainda tem lunático que apoia este desgoverno. prefere enriquecer os bancos, banqueiros e o "mercado" e fuder com a saúde, educação e assistência social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.) os motores deste movimento de mercado são um reação exagerada ao #coronavirus combinado com o preço do petróleo (#oilwars). a extensão é mundial. além disso, para o brasil houve uma disparada no câmbio do dólar. é difícil prever eventos assim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">congresso impõe derrota ao governo e eleva gasto de benefício assistencial em r$ 20 bi por ano https://t.co/jywvvmpw02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rosa_riscala @victorytrader88 @sgoldenstein esta seria a medida de grande impacto, corretiva aos rumos que o bc deixou o mercado tomar. a manutenção seria menos impactante, mas com efeito semelhante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @leandroruschel: no mundo inteiro o mercado desaba. mas a culpa é do bolsonaro.
+como é poderoso esse presidente! consegue derrubar o me…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @dankawa2: amanhã será um dia importante para mapearmos o tamanho do estrago no mercado de fundos locais. muito zum, zum, zum. não para…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excelente dia para comer um cachorro quente sentados na calçada para conversar sobre o corona e a ‘crise’ no mercado financeiro......... 
+mas eu tô de dieta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itaú unibanco diz que dois funcionários com coronavírus foram isolados https://t.co/yjflgwsxd9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @attuchleonardo: piada do dia no mercado financeiro https://t.co/k4xeglfuwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @folha_mercado: coronavírus pode causar danos como a crise de 2008, diz lagarde https://t.co/2lpoob76ei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @enioverri: a bolsa de valores voltou a cair, hoje, mais de 10%. as operações foram paralisadas. a pandemia de coronavírus é um dos moti…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mais um dia agitado no mercado financeiro... #ibovespa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hamilto59052342 @oi1uiz verdade 
+tem muita gente que acha, que é o estado que tem que promover a economia, e não o próprio mercado.
+onde o estado coloca a mão, na maioria das vezes é pra pior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@kabralcabral @brokerdif @arykame vixe... estão negociando o  koo no mercado financeiro?
+hahahahahahaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dias1st @nocturnoz1 é tudo isso sim mano, ta afetando ate o mercado mundial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segundo a globonews isso foi um duro golpe no mercado e mais um problema para o governo.😂😂 https://t.co/i7ydetbnce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jim_ibov espero que o bacen e o paulo guedes venham ao mercado, porque do contrario brasil vai quebrar ao quadrado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@tecomedina não caiu mais porque a b3 não deixou, não dava pra colocar ordens abaixo de 80540, livre mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em 2016, de jong valia 600 mil euros no mercado. hoje, em 2020, o mesmo vale 90 milhões de euros. https://t.co/jud5xu7atg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e você só estará pronto para capturar se efetivamente souber o que está fazendo. o jogo do mercado é bruto. grandes gestores sofrem. profissionais com décadas de experiência lutam e estudam exaustivamente para conseguir resultados consistentes de forma sucessiva. (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @tarcisiogdf: enquanto o mundo desacelera, o 🇧🇷 tem nas mãos o maior e + sofisticado programa de concessões de infra. temos a oportunida…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @lucasmo09473510: @pedrocerize lembre-se sempre disso: quando você estiver confiante demais nas suas habilidades no mercado, você está m…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dollarhumble vendendo put. lmt e cat (só opero no mercado americano). objetivo de ficar com o papel se continuar desabando o mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@sr_k_ se isso aconteceu, foi pq vc mereceu! é o nosso ídolo do mercado financeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @costafilhojoao: o mercado financeiro acha que a bolsa é tipo a tele sena e com menos pontos também ganha?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">existe algum dark pool no brasil?
+não é possível. tem uma galera que todos os dias - desde o leilão de abertura - já começam fazendo milhões na direção certa do mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status do dia: minhas finanças foram terrivelmente abaladas, só não perdi mais que os 91 bi em valor de mercado que a petrobrás  perdeu ontem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vender pequenas quantidades deles sem afetar sua cotação no mercado. 3. finalmente, às vezes, até mesmo certas ações ou mercadorias de muita negociabilidade. é claro que as vantagens de diminuir os custos de manter um encaixe devem ser confrontadas com certos [4952/9611]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jandiarasboff @joseniakk @hbredda @ailtonbenedito @rodrigomaia sentimento de impotência,  até a tv dizendo  q o rodrigo do centrão votou p ajudar o governo,  tamanha piada. se arrebentar c tudo é ditador, e deixar rolar eles nos engole aos poucos até a cartada final. de td jeito a confiança no mercado ja éra , então tem q ir p cima mesmo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@georgmarques @marcelopintoba estas merdas que estes bostas de jornalistas falam é porque a porra do "mercado" que nada mais é do que os milionários. pagam o alto  salarios destes lixos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @juzao: eita, segundo circuit breaker da semana
+vou te dizer que trabalhar no mercado financeiro tem sido peculiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rio diz que choque no preço do petróleo é 'hecatombe' https://t.co/ciebqii4o3 energia barata é  bom para as indústria e geração de emprego, mas, esses párias,que vivem explorando o povo c/ impostos é o caos.o rj sempre viveu  assim nababescamente. nunca investiu nada, só  roubou.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @absent_purpose: @guienomorto o curioso caso do livre mercado onde o prejuízo é público e o lucro é privado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @erik_quarto: mercado financeiro acabando e nois tá como https://t.co/nzdbeash2n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@danielhrs perdem os especuladores do mercado financeiro! estamos falando de idosos e deficientes que receberam uma ajuda de custo do estado, mesmo tendo uma renda familiar de meio salário mínimo. 
+agora experimente vc, @danielhrs, viver com menos de meio salário mínimo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@liviolsoliveira @pboccato @staut_brito @ailtonbenedito ... produção após ataque sofrido em uma refinaria, e pq  rússia está recebendo petróleo como forma de pagamento da síria e venezuela e revendendo e lucrando. 
+quem acompanha o mercado mais ou menos previa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @ddaengfc: kkkkkkkkkkkkkkkkkkk bigbang podia reinar, hoje é diferente porque o tempo deles já passou. o maior mercado do mundo é o us, e…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jose_simao outro imoral igual a da pasta da justiça. os inteligentes percebem mais rápido, só que não conseguimos mudar esse quadro. guedes trabalha para um segmento só: o mercado financeiro, não para o brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">só os "liberais" pedindo pelo amor de d'us que o chapa branca salve o mercado!! liberal até a página 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@enricky_lost morte ao livre mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @nabucodonosor96: a mão invisível do mercado passando a mão na nossa bunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"nós estamos testemunhando um novo colonialismo com a entrada do capital internacional no mercado da água brasileiro"
+https://t.co/5dppffncqe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@11h08sky @exame ajuda mais do que os parente que vc liga perguntando se tá no mercado pedindo pra pegar um pacote pra vc e a pessoa não compra, baseado em fatos reais. (eu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @rolealeatorio: a 5ª série no mercado de trabalho https://t.co/q5vn40dvvv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o susto q levei indo no mercado foi brincadeira, quase morri do coração mas foi mt engraçado kkkkkkkkklkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @joanaa_picaa: quem tem este pensamento, está neste momento no conforto da sua cama e de barriga cheia. isto é uma realidade que tem q s…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @viasevedo: se tem uma classe que merece ser taxada de trouxa-mor é quem trabalha no mercado editorial/livreiro e votou nessa birosca qu…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minha mãe já deve tá arrependida de ter pedido pra mim e o meu irmão fazer a lista do que a gente quer do mercado :,)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">é justamente isso kpop tá longe de ser um dos principais géneros musicais quem expandiu esse mercado musicalmente de uma forma significante grande foi o bangtan se vc sair perguntando na rua dos eua oq é kpop eles vão falar o nome do bts isso se chama expandir pra fora da bolha https://t.co/qsky4fj8xv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@sunshityy "então eu andie pelas ruas á procura de um mercado"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@loointhezoo álcool gel por exemplo faz mais de semana que não tem no mercado 😰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fui no mercado hoje e vi um sushi, e me deu uma leve vontade de comer
+será que eu to ficando louco?🤔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pior hora pra ir no mercado é 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google recomenda home office a todos os funcionários da américa do norte - folha de s.paulo https://t.co/vm8cheshdc https://t.co/kj4gvccxwj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @renovamidia: o jornalista alexandre garcia declarou:
+“vamos falar sobre o que acontece em #brasília, o que acontece no #brasil, sempre…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @minfraestrutura: durante o encontro, o ministro falou sobre a relicitação amigável do aeroporto de natal, nos termos da lei nº 13.448/2…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @raullsantiago: a guerra às drogas é um poderoso mercado do medo, que está distante da ideia de segurança, direitos e paz.
+explora terri…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercado livre tentando me vender uma coca cola de 2,5l por apenas 57,50$ https://t.co/jxiizg2d83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a vó foi no mercado e trouxe vários mimo, eu acho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @netmane: caros empreendedores de turismo local, isto não o fim do mundo, como vocês gostam de dizer... isto é o mercado a funcionar. se…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whopper furioso na loja: r$28,90
+com o app do bk: r$21,90
+com o app e pagando com mercado pago: r$11,90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @marpetrucelli: exatamente isso! imposição de derrota pelo simples prazer de vingança. são congressistas que atuam, descaradamente, para…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @radioitatiaia: ⚽️#atlético: alexandre mattos se desligou do reading, da inglaterra, na manhã desta quarta-feira. livre no mercado, dire…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu amo threads sobre o mercado musical brasileiro e vou defendê-las https://t.co/9ntebddvbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@folha @folha_mercado tanta torcida e deu em nada como sempre ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11/03/2020 18:36:37] pai❤️: to no mercado
+ [11/03/2020 18:36:50] pai❤️: qual você quer?
+ [11/03/2020 18:36:51] pai❤️: fala logo 
+kkkkk o próprio pai conhece a filha pingaiada que tem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @diarioonline: estudo aponta avanço na presença das mulheres no mercado de tecnologia https://t.co/o9xtdxlys0 https://t.co/mmhe7as02t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung come o rabo da apple em novo tik tok viral provando que o s20 tem a melhor câmera do mercado  https://t.co/rj076tpd8r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a tia já falou sobre essas imagens no #brasilurgente, na bolsa tinha coisas que ela comprou no mercado pra comer #cidadealerta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vir no mercado e querer passar por cima de todo mundo com o carrinho é inevitável</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onde tem mecenas, o pilantra do mercado brasileiro de futebol ta junto....que coisa impressionante! https://t.co/tcf3hy1wlu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu não posso ir ao mercado sem uma listinha. parece que perco o foco do que fui comprar, volto com um monte de besteira e nada do que eu deveria ter comprado 🤦🏻‍♀️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mano, a galera tá surtando real! eu fui no mercado comprar um sorvetinho e pão de queijo e passei 2h, repetindo, duas horas na fila pq a galera tava comprando comida pra estocar https://t.co/p1gq6f2f3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @_ihu: "nós estamos testemunhando um novo colonialismo com a entrada do capital internacional no mercado da água brasileiro"
+https://t.c…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefeitura debate organização do mercado informal com ambulantes de lauro de freitas https://t.co/ylidlheldq https://t.co/3szdmgsm97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11/3 18:45] ester gonçalves: amigo fala alguma coisa que tu queria que existisse para comprar no mercado ou na farmácia ou em qualquer loja kkk por favor
+[11/3 18:45]melhor amigo❤: panqueca 
+[11/3 18:46] ester gonçalves: mais existe loko
+cada coisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ia no mercado mais o bnt até agr não chegou né então tb hj não tem comida 🤷🏾‍♀️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@felipeferraz27 não sei em relação a smoking, mas no mercado livre tem terno azul no precinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mano eu não acredito que tão fazendo estoque aqui das coisas e acabando com as coisas do mercado que ódio q eu sinto disso falta de civilidade do inferno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ótimo presente para o ano todo.
+código para venda através do mercado livre #1391917844
+01 camisa adulto branca com mangas curtas do p ao eg 100% poliéster light tipo dry fit secagem rápida e não há necessidade de… https://t.co/qjail15j5q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estava dboa no mercado e do nada um cara para na minha frente fala oi e sai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faz 3 dias que meu pai tá no mercado, só quero ir pra casa, chorar no conforto da minha cama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acho que to de tpm pois mamãe me pediu p ir no mercado e eu to prestes a chorar pq nao quero ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vou no mercado comprar as coisas pra fazer o fricassê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o pessoal tem que parar e entender que o iphone já não é mais referência de mercado pra nada desde 2016... https://t.co/yo3lbxrybj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uma das coisas que eu mais amo eh fazer mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e cada dia que passa o mercado não está pra peixe... jeremias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu não briguei no mercado não né</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sempre quero que os pequenos empreendedores que não exploram ninguém obtenham êxito no mercado. agora quando vejo que o caro é bolsominion e tá se fodendo, eu não sou obrigada a ter empatia não meu irmão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fui mo mercado e já aproveitei pra comprar um salgado né kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para a matilha neoliberal no mercado e na mídia, pobre não tem direito à migalha do governo. mas como? são 200 milhões em 10 anos. bueno, essa mesma turma voraz do mercado não se constrange com a queima 45 bi de dólares para alimentar os lobos da especulação em apenas 2 meses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quem tem este pensamento, está neste momento no conforto da sua cama e de barriga cheia. isto é uma realidade que tem q ser encarada. há países em quarentena neste momento, pessoas que nem ao mercado podem ir, familiares doentes. n deixa de ser preoucupante só pq n vos atingiu https://t.co/khfuzkalwn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mpu_po @rafaellacgarcia ah eu achei que era alguma novidade no mercado de bolo
+tipo quando apareceu o naked cake kkkkkkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atenção 
+sua cidade está no epicentro do coronavirus e você precisará ficar um mês sem sair de casa
+o governo só permite que você pegue para esse mês 3 itens de necessidade básica no mercado. quais você escolhe? https://t.co/diiloq8jcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">há poucos dias, comentava com um jornalista que o [aparente] ímpeto reformista de parte do congresso não deve ser confundido com ortodoxia fiscal. melhor exemplo, impossível.
+https://t.co/cgw83rvua0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu em 2010 após ir no mercado com 2 reais e voltando pra casa cheia de compras e 50 centavos de troco https://t.co/yeifyau8xv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @walkinglag: @beatrizsvelez um mercado com animais ilegais na china é um bocado diferente de um supermercado com controlo de qualidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefeitura debate organização do mercado informal com ambulantes de lauro de freitas https://t.co/no1q7eispe https://t.co/egttzyee5d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vou deixar pra ir ao mercado amanhã, tempo doido já tá virando de novo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dexmacho tributos são regidos pela vontade de representantes e não pelo mercado. desperdício de dinheiro e gerador de pobreza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">é o apocalipse amigos 
+corram pro mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@maurocezar @youtube pergunto: ele tem mercado fora do brasil??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vê oq passei hj no mercado pela primeira vez, vê oq aconteceu e taça o fds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@patysoelo deve ser no centro rs, e devo conhecer a igreja de nazaré, teatro da paz.. um mercado famoso de ferro .. vai ser legal conhecer sua terra 😎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fui no mercado comprar cerveja p avó da maria, aí a moça do caixa veio toda debochada “amadinha você tem rg?” kkkkk aí foi muito bom tirar meu rg e deixar a mulher c cara de tacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fui no mercado e notei que tava todo mundo me olhando estranho, cheguei em casa e quando olho eu tinha esquecido de tirar a máscara facial kkkkk parecia o hulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na vida de casada, aprendi que: existem as compras do mês no mercado e em drogaria
+so hoje gastei quase 200 reais em remédios e coisas de higiene.
+pelo menos os absorventes e sabonetes estão em dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quem não ajuda os outros a crescer nunca vai crescer. a pura verdade é essa. se uma certa pessoa acha q atrapalhando os outros vai se sair bem, eu sinto é pena. pena pela pessoa que ela se casou, pela vida q ela leva, pela ignorância q ela tem e pelo mercado ilusório q a mantém</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dudu então troco tudo por chumbinho, sei que tem no mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hahahahah a mulher veio querer brigar comigo e não conseguia entender que eu tava falando que ser ator da globo não torna ninguém rico (no caso, o babu). pq a gente sabe que o mercado tá louco atrás de negro com o biotipo dele. foi lá e me bloqueou 🤷🏻‍♀️ #bbb20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@spencerq @mareaiitys @tulioduarte as bundas secas tbm são valorizadas no mercado. https://t.co/unrmg6mtmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @jordanfarialima: o mais triste dessa história é que poucos ensinaram que isso poderia acontecer, cedo ou tarde aconteceria e 90% dos no…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minha mãe falo pro meu pai ir no mercado compra fruta ele compro banana melão 4 barras de chocolate 2 caixa de bis 1 pote de nutella e 2 caixinha daqueles  palitinho de chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">essa semana vou no mercado comprar aquele saco de copao pra levar na baphooo, eu fico comprando copo e perdendo, vou levar de plástico agora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vi a samile no mercado lind sem condissoes saudades demais soke medo da main dela vim mim bate falando ki eu tavo comprando corote i pão a isa rino mi chamando di besta 
+sdds apenss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @danieljosebr: bolsas de todo o mundo estão em queda!
+brasil: -7,6%
+eua: -4,8%
+canadá: -4,6%
+argentina: -4,3%
+austrália: -3,6%
+israel:…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @sergeta: recuos das bolsas de valores no último mês. olhando pelo covid-19: dos países que caíram pelo menos 20% o brasil é o único com…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e inundar o mercado com dinheiro (excesso de liquidez). as bolsas vao ter uma retomada histórica. vão subir como nunca antes vito. vai ter muita gente que comprar na baixa ganhando dinheiro como gente grande. e voce ai achando que nada é manipulado ne? +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aposto em cb amanhã das bolsas americanas e b3 pode até repicar mas não confio, acredito que tenha outro cb pra depois recuperar, boa noite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">última pandemia não houve fechamento de fronteiras, quarentena de países inteiros, paralisação de voos dos eua para outro continente, nem as bolsas caíram tanto. dessa vez o vírus é veloz e mandará 20% de quem pegar para a internação, dos quais 1/4 não voltam. #coronavirus https://t.co/zfrnq99p4f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depois do fechamento dos eua para vôos da europa, como vocês acham que vão abrir as bolsas amanhã? menos q 3 circuit breaks, pago o cachorro quente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolsas asiáticas têm forte queda após discurso de laranjo; índices futuros despencam
+https://t.co/rosdd5uddb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o isolamento brasileiro, no entanto, gera algumas distorções na cultura. tem muita gente exagerando o peso do governo na crise atual. bolsas do mundo todo estão caindo. o brasil não é o centro do mundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolsas da ásia com humores diferentes. japão caindo 4,92%. hong kong -3,81%. shanghai -1,34%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @llfmph: eu imaginei muito a lena segurando a sam numa daquelas bolsas que as madames levam seus cachorrinhos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nem sei como vou fazer pra trazer aquelas bolsas todas amanhã 😫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as bolsas de valores pelo mundo amanhã terão uma queda histórica.
+as dessa semana até agora não são nada.
+e, como sempre, já podemos apostar em quem terá uma queda recorde: a do brasil, de guedes e bolsonaro.
+dólar a r$ 4,90?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @agmartins3: #j10
+os arautos das más notícias, querem dizer que as bolsas asiáticas são as que dão o rumo para as demais bolsas.
+avise…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @osvladpereira: augusto nunes: "crise entre arábia saudita e rússia derruba bolsas."
+mas para gleisi o culpado é o presidente bolsonaro…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bear market assinala a queda de 20% nas bolsas.
+o de 1929 demorou 36 pregões. 
+o de hoje, apenas 21...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dia começa, e no outro lado do mundo, bolsas seguem despencando: austrália - 7% e tóquio -4%. https://t.co/xwttvsoln4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os mercados não reagiram bem ao anúncio do presidente trump. principais índices futuros das bolsas de nova york (dow jones, s&amp;amp;p 500 e nasdaq) exibem queda de quase 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minha fé é tanta q to arrumando minhas bolsas pra ir pra casa de fabricio e coloquei o look e make reserva caso a gente ganhe o ingre pra ir na zoox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">durante e depois do pronunciamento de trump no salão oval, os índices futuros das bolsas de nova york aceleraram as perdas, assim como os contratos de petróleo. o dólar também passou a cair mais em relação ao iene, moeda considerada mais segura em tempos de crise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@capivaratrader vai sair... cb nas bolsas do mundo todo de uma vez só. kkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @sakutaehy: oi gente, eu queria a atenção de vcs um oouquinho... minha mãe trabalha com artesanato e ela esta vendento varias coisas, bo…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">que imprensa chapa-branca, peloamordedeus! as bolsas caíram e o dólar subiu não foi por causa do coronavírus e da crise econômica mundial, mas porque o congresso derrubou um veto do bolsonaro. é de pasmar. botando lenha na fogueira marcada para 15.3.
+https://t.co/z6yhhyzudq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @ddsamorim23: @debora_d_diniz minha leitura é diferente: a crista negacionista arrogante dos fascistas inevitavelmente se dobra frente à…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@forastieri neste momento, bolsas asiáticas caindo 4%, em média, e nem tem o reflexo de fechar o espaço aéreo entre eua e europa continental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@paulosnarciso pelo oq eu entendi vc tá em 4 de 4 bolsas e significa que tem 3 pessoas na sua frente. e se levar tudo certinho a quarta vaga é sua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a unb não tem água nos bebedouros, não tem papel higiênico, cortou bolsas, tem mosquito da dengue, etc, mas não ter 1 semana de aula por causa do coronavirus é o que vai atrapalhar o rendimento acadêmico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@giovann67526838 @anacamiran sim amiga kkkkkkkk umas 15 bolsas p 4 pessoas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@whindersson por isso q as bolsas no mundo todo despencaram.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a bolsas de valores irão cair é isso pode gerar a maior crise que o mundo vai ver, medo eu tenho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@marycognata @marconha77 pibid? programa institucional de bolsas de iniciação a docência? mds, eu fui bolsista e sou grandiosamente grato por esse programa...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amanha as bolsas estarao no modo marea turbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o problema não é a letalidade do vírus, mas o pânico em cadei que ele provoca. por acaso a gripe comum derruba as bolsas de valores do mundo? 🤷🏼‍♀️ https://t.co/bsuhdhvr0f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menina, bolsa amanhã já deve amanhecer com circuit breaker, quebradeira já rolando nas bolsas internacionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@oatila é possível eles começarem a cancelar a partir de agora eventos de meio de ano por conta do vírus? me refiro a bolsas escolares que possibilitam ida e saída dos us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nesta quinta-feira, as bolsas da ásia abrem com forte queda, com a declaração de trump que empedem a entrada de europeus no eua, para controlar o vírus no país.     aproveitem, o bear market continua nesta quinta!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@raullsantiago os dados até aqui não indicam nenhum favorecimento a ninguém. todas as bolsas derreteram e o patamar de desaceleração é destrutivo a governos e empresas. ainda não parece ter ninguém que lucrariam com algo dessa magnitude. e o vírus n foi criado, sempre existiu na vida selvagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu fui no centro da cidade hoje e tinha meio mundo usando máscara e com álcool em gel pendurado nas bolsas, já devo me preocupar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolsas da ásia e da austrália abriram os seus pregões com fortes baixas nesta quinta-feira. este fato vai se refletir por aqui. bao há dúvida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @winstonling: esta é para você entender a fofoca alarmista em torno do coronavírus, e o sobe-desce recente nas bolsas de valores mundiai…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@albuquerque_af concordo. parece que agora virou pandemia pedir pra fecharem as bolsas. que merda é essa? só pode deixar aberto quando tem robô comprando passivamente com dinheiro impresso pelos bcs? essa foi o fim da picada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jecihell não sei não. as bolsas nem devem abrir. ainda mais com essa notícia do trump “fechando” os voos da europa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@g1 legal que esse bononoro rebate a organizaçao mundial de saude. nivel global.  fora as bolsas quebrando! esse cara oficialmentw tem um oarafuso a menos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolsas asiaticas https://t.co/hxxjdiamzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @ph_caixeiro: todo esse caos porque algum arrombado foi comer um pangolim, animal mais traficado do mundo que pode ter servido de interm…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @causaoperariatv: oms decide que "fantasia" de bolsonaro é pandemia. bolsas despencam de novo. resumo do dia 444 - 11/3/20 https://t.co/…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as bolsas de valores asiáticas abriram com baixas próximas aos 5%. o mercado deve repercutir nesta quinta as ações americanas para combater o coronavírus. a suspensão de circulação entre eua e europa pode impactar cadeia de suprimentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @marcelocerize: bora lá, vocês são traders, porque querem fecharam as bolsas por dias?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotação do café n.y. finalizou a quarta-feira em baixa: mercado interno bolsas n.y. e b.m.f… https://t.co/h7aervecdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ajudemserena eu to impressionada como famosos podem comprar bolsas e carteiras de 15/20 mil e não podem doar 1 centavo pra ela. fico indignada!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@lgodan pânico mundial.
+só o traste que "preside" o br acha que a mídia é que está aumentando as coisas.
+vamos ver como reagem as bolsas mundiais.
+bolsabr poderá até parar se o movimento cair acima dos 20%.
+o dolar, só não chega em 5,00 se queimarem mais das reservas deixadas pe pt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@maitegentileza amiga quanto é só pra tu me mandar essa ultima mode de paris das bolsas? me ajuda com esse patrocínio teu! hahahahaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @jouberth19: queda das bolsas:
+🇶🇦 -9,3%
+🇰🇼 -10,3%
+🇬🇷 -12,4%
+🇦🇪 -10%
+🇧🇷 -10%
+🇮🇹 -9,5%
+🇸🇦 -9,4%
+🇺🇸 -5%
+🇵🇹 -7,7%
+🇦🇺 -7,3%
+🇫🇷 -7,2%
+🇩🇪 -6,5%…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam
+https://t.co/udiosuelag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @henriquefontana: é preciso paralisar a privatização de setores estratégicos. como vamos vender o patrimônio dos brasileiros nesse cassi…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as companhias são as mais prejudicas nas bolsas internacionais. o derretimento das ações preocupa porque a situação financeira de muitas aéreas já era preocupante. os governos não têm se compadecido das companhias e a hipótese de uma salvação governamental está distante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@lgodan quanto mais as notícias mexerem com os índices dos mercados e bolsas mundiais melhor para os interessados!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @bob_fernandes: o petróleo em baixa, o coronavírus em alta, bolsas do mundo e bovespa despencando ou na gangorra, o dólar, o euro e a li…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ranicarvalho @danilotreta lembrando que a loja do centro (que vende calçados, bolsas e acessórios) se chama pintos calçados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vendo vídeo de bolsas e sapatos de luxos sonhando com o dia que terei vários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@veramagalhaes próximo domingo 15 de março o brasil estará nas ruas. foda-se o carona vírus. máscara e álcool gel rapaziada. levem nas bolsas e vamos botar pra fazer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu imaginei muito a lena segurando a sam numa daquelas bolsas que as madames levam seus cachorrinhos https://t.co/zo4clrprpx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vamo fingir que os pregões ainda são aquele monte de doido junto gritando no telefone e fechar as bolsas por uns 15 dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duas bolsas disponíveis 
+4° na lista 
+quais as chances affff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuos das bolsas de valores no último mês. olhando pelo covid-19: dos países que caíram pelo menos 20% o brasil é o único com menos de 100 casos confirmados (52). amanhã o circuit breaker pede música no fantástico? https://t.co/ovhpbp8vfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eua barram todas viagens vindas da europa. as bolsas amanhã enlouquecem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @carloscezarcjr: ontem as bolsas caíram no mundo inteiro.
+aqui no brasil a oposição(oportunista como sempre) não perdeu tempo para joga…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oms declara pandemia do coronavírus
+bolsas de valores caem pelo mundo depois de anúncio
+acompanhe na reportagem de @jumaciel #sbtbrasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o tom hanks tá com corona.
+a nba cancelou a temporada.
+os eua fecharam o espaço aéreo pra europa. 
+as bolsas estão despencando. 
+eu tô nervosa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por fim, vamos a palavra recession, que é a recessão econômica. e assim vamos a conclusão.
+no dia 11 de março de 2020, foi anunciada pela oms a pandemia do coronavírus. isso fez bolsas caírem, assim como movimentos governamentais do mundo todo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os estados unidos guisados por trump fecharam as fronteiras para voos de países que são fonte da pandemia de coronavírus e vcs sabem o que isso significa? estamos prestes a ter um colapso na economia mundial. amanhã vocês vão ver como vão se comportar as bolsas de valores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@camaradeputados parabéns inúteis! o país começando a ser afetado com a queda das bolsas, a economia tentando se recuperar, vcs fazem essa cagada! é mta imbecilidade em um lugar!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @fabiojbacha: vou falar: bolsas deveriam fechar uns dias até as informações estarem certas.. movimento de destruição de riqueza aue mtos…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @gdoweber: amanhã as bolsas não caem, desabam…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@alesilva_38 proponha hoje! privatizar todas as faculdades federais. vai sobrar dinheiro para mais essa "benfeitoria" vinda do pagador de impostos.
+corja!! viu o resultado imediato nas bolsas. esse é o estadista que quer ser presidente?? canalhas!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu: hoje eu durmo cedo, vou deitar e apagar!
+meu cérebro às 01h: vamos entrar no site da louis vuitton pra ver os sapatos? nós nunca vimos os sapatos, só as bolsas. vaaaaaaamos, pega o celular 🤗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@multishow se isso aconteceu na dispensa qndo foi colocar as bolsas me explica como ela tava com a correntinha na mão na hora dele sair e entregou p ele... estranho né pq se ela ñ quis pegar dentro da dispensa qndo ele deu era p estar com ele dentro do bolso qndo saiu 🤔😏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">china parou. itália parou. eua não pode mais receber voos da europa. as ligas americanas cancelaram a temporada. grandes eventos esportivos também são adiados ou sem público. bolsas mundiais despencaram. escolas estão fechando em todo o mundo. corona vírus devastador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@reginaldfjohns3 @drhache_70 bolsas de coto no? https://t.co/oaoghlwyqn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @prongshits: @goldentrxsh essa é a giselly, o mal em figura de gente
+ela é a abelha rainha, estrela, as outras duas (jhuly e iasmin) sã…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ailtonbenedito no 🎯
+conseguem comprar alimentos com valores reduzidos, comprar ações no colapso das bolsas com seus dólares fora dos eua e quem perde são os países capitalistas e democrático. criam uma guerra química e biológica quando estão passando por problemas. é o comunismo na prática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@elianabragam @manuocampos1 no mesmo ritmo. oportunizando-se da queda nas bolsas.
+além de sobrar alimentos e insumos p aumentar as exportações. bolsos cheios de grana pra alguns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@eikebatista valor investe diz q a forte alta das bolsas da véspera acabou se mostrando apenas um soluço. no brasil, a queda do ibovespa foi tamanha nesta quarta-feira (11) que o botão de pânico da b3 precisou ser acionado pela segunda vez em três dias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por conta do corona virus, tv do candidato vermelho bloomberg virou obrigatória pra mim.
+só números vermelhos e ruins, como o dono.
+bolsas asiáticas  3.5% em queda...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@arvdatt @eduardo_cury @liacrespo hoje já derrubaram as bolsas em 12%.  não dá  mais pra passar a mão! temos q ir pra cima!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @parox40: bolsas:
+índice nikkey ( japão ) -5%. 
+s&amp;amp;p/asx 200 ( áustrália ) -7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @hoc111: queda das bolsas pelo mundo:
+brasil: -10%
+eua: -5%
+alemanha: -6,5%
+portugal: -7,7%
+austrália: -7,3%
+frança: -7,2%
+grécia: -12,…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maluco, as bolsas vão derreter hoje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@adrianocezak @radiosenado nosso presidente tem que
+lutar c um congresso vendido 
+stf corrompido 
+esquerda hipócrita q vomita democracia mas, n aceita a derrota 
+batismo de sangue nas bolsas de valores causado por governantes dementes como a dilma
+e uma pandemia
+estamos do lado dele⏬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolso na parte da frente resolveria meus prooblemas com bolsas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daí tô olhando as bolsas
+revirei meu quarto todo
+olhei nas roupas pra lavar
+procurei na casa toda
+e nada de achar minha autoestima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vou falar: bolsas deveriam fechar uns dias até as informações estarem certas.. movimento de destruição de riqueza aue mtos acham que rica só na tela chega na economia real aos torcedores da alegria de perda dos outros!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@elianamrsz @amazinghercules @calssilva @elianereal3 @samiabomfim mas é claro, se as bolsas da europa e dos eua ainda começaram a dar sinal de resultado, é um tanto quanto ingenuidade esperar que a do br vai ter o mesmo empenho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolsas vão despencar amanhã.. jesus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @realthiagoreis: as bolsas de valores pelo mundo amanhã terão uma queda histórica.
+as dessa semana até agora não são nada.
+e, como sem…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @estadao: editorial: se o presidente estiver certo, a 'grande mídia' terá confundido bolsas de todo o mundo, além de ter criado a ilusão…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolsas na ásia caem depois que trump anuncia proibição de viagens da união europeia para os eua: https://t.co/rbudqx78fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coronavirus x dengue x economia 
+galera a questão do novo coronavirus é que o contágio é alto, mas a letalidade até então é baixa. não há motivos para uma histeria. 
+as bolsas do mundo todo vão continuar derretendo, então cuidado com os fake news que vai ter a respeito disso. -&amp;gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrei aqui pra contar que tô em 5° lugar de 2 bolsas na lista de espera do prouni e tô muito esperançosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @agenciapublica: 📣📣atenção, estudante! você até o dia 15/03 para inscrever sua pauta sobre mobilidade urbana no concurso de microbolsas…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesmo sem saber até, se terei um emprego, mesmo após estudar mais de 4 anos, alguns leigos não tem noção do que está por trás desse vírus, que foi declarado como pandemia, nossa país sofreu corte nas bolsas de iniciação científica, e agora quem garante que estamos estruturados ?</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1979,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1053,10 +1994,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1076,15 +2013,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B264"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
@@ -1148,7 +2087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
@@ -1196,7 +2135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>3</v>
       </c>
@@ -1220,7 +2159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>3</v>
       </c>
@@ -1236,7 +2175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>3</v>
       </c>
@@ -1281,7 +2220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>3</v>
       </c>
@@ -1329,7 +2268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>3</v>
       </c>
@@ -1353,7 +2292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>3</v>
       </c>
@@ -1377,7 +2316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>3</v>
       </c>
@@ -1385,7 +2324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>3</v>
       </c>
@@ -1505,7 +2444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>3</v>
       </c>
@@ -1513,7 +2452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>3</v>
       </c>
@@ -1577,7 +2516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>0</v>
       </c>
@@ -1593,7 +2532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>3</v>
       </c>
@@ -1609,7 +2548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>3</v>
       </c>
@@ -1633,7 +2572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>3</v>
       </c>
@@ -1649,7 +2588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>0</v>
       </c>
@@ -1657,7 +2596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>3</v>
       </c>
@@ -1697,7 +2636,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>0</v>
       </c>
@@ -1777,7 +2716,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>3</v>
       </c>
@@ -1785,7 +2724,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>0</v>
       </c>
@@ -1793,7 +2732,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>0</v>
       </c>
@@ -1841,7 +2780,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>3</v>
       </c>
@@ -1881,7 +2820,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>0</v>
       </c>
@@ -1897,7 +2836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>3</v>
       </c>
@@ -1921,7 +2860,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>0</v>
       </c>
@@ -1937,7 +2876,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>0</v>
       </c>
@@ -1985,7 +2924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>3</v>
       </c>
@@ -2009,7 +2948,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>3</v>
       </c>
@@ -2017,7 +2956,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>3</v>
       </c>
@@ -2065,7 +3004,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>3</v>
       </c>
@@ -2097,7 +3036,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>3</v>
       </c>
@@ -2129,7 +3068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>3</v>
       </c>
@@ -2161,7 +3100,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>0</v>
       </c>
@@ -2177,7 +3116,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>0</v>
       </c>
@@ -2193,7 +3132,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>0</v>
       </c>
@@ -2201,7 +3140,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>3</v>
       </c>
@@ -2225,7 +3164,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>3</v>
       </c>
@@ -2241,7 +3180,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>0</v>
       </c>
@@ -2265,7 +3204,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>3</v>
       </c>
@@ -2281,7 +3220,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>3</v>
       </c>
@@ -2353,7 +3292,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>3</v>
       </c>
@@ -2377,7 +3316,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>0</v>
       </c>
@@ -2385,7 +3324,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>3</v>
       </c>
@@ -2425,7 +3364,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>3</v>
       </c>
@@ -2449,7 +3388,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>3</v>
       </c>
@@ -2473,7 +3412,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>3</v>
       </c>
@@ -2545,7 +3484,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>3</v>
       </c>
@@ -2609,7 +3548,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>3</v>
       </c>
@@ -2633,7 +3572,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>3</v>
       </c>
@@ -2745,7 +3684,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>3</v>
       </c>
@@ -2809,7 +3748,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>3</v>
       </c>
@@ -2817,7 +3756,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>3</v>
       </c>
@@ -2841,7 +3780,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>3</v>
       </c>
@@ -2873,7 +3812,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>3</v>
       </c>
@@ -2881,7 +3820,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>3</v>
       </c>
@@ -2969,7 +3908,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>3</v>
       </c>
@@ -2977,7 +3916,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>3</v>
       </c>
@@ -3033,7 +3972,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>3</v>
       </c>
@@ -3057,7 +3996,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>0</v>
       </c>
@@ -3065,7 +4004,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <v>3</v>
       </c>
@@ -3097,7 +4036,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <v>3</v>
       </c>
@@ -3105,7 +4044,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <v>3</v>
       </c>
@@ -3113,7 +4052,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <v>3</v>
       </c>
@@ -3137,7 +4076,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <v>3</v>
       </c>
@@ -3145,7 +4084,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <v>3</v>
       </c>
@@ -3161,7 +4100,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <v>0</v>
       </c>
@@ -3185,12 +4124,428 @@
         <v>260</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3209,17 +4564,1787 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B222"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I222" activeCellId="0" sqref="I222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="8.6"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>262</v>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/Mercado.xlsx
+++ b/Mercado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="450">
   <si>
     <t xml:space="preserve">Treinamento</t>
   </si>
@@ -1590,6 +1590,24 @@
   </si>
   <si>
     <t xml:space="preserve">tô aqui no mercado e o moço que me atendeu é lindo dms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🕵🏾‍♂️abin🍌🐄 economia em 4 atos
+1. com o pibinho do jegues;
+2. se o bozo não fosse tão, mas tão burro, ele escutaria o mercado;
+3. me colocaria no ministério e eu traria um pibão;
+4. talkei
+e de quebra criaria mais 10 milhões de empregos.
+jegues, tua batata ta assando. https://t.co/ny65q4lxvb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @deciolimapt: quem vai pra casa  logo? guedes ou regina? se depender da mídia corporativa, como o guedes representa o mercado, quem vai…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @doeumlivro: você acha que cursos de graduação na modalidade ead preparam bem para o mercado de trabalho?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@samflach mercado livre</t>
   </si>
 </sst>
 </file>
@@ -1721,8 +1739,8 @@
   </sheetPr>
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A301" activeCellId="0" sqref="A301"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A295" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="A147:B150 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4151,10 +4169,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A147" activeCellId="0" sqref="A147:B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5329,6 +5347,38 @@
         <v>445</v>
       </c>
     </row>
+    <row r="147" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Mercado.xlsx
+++ b/Mercado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,9 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="451">
   <si>
     <t xml:space="preserve">Treinamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevância</t>
   </si>
   <si>
     <t xml:space="preserve">nunca vi um mercado tão cheio</t>
@@ -1739,2418 +1742,2424 @@
   </sheetPr>
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A295" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="A147:B150 D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="89.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="3" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B33" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>40</v>
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B44" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>45</v>
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>46</v>
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>47</v>
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>48</v>
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>49</v>
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B51" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>52</v>
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B54" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>55</v>
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>56</v>
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>57</v>
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>58</v>
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>59</v>
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>60</v>
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>61</v>
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>62</v>
+      <c r="A63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="B64" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>65</v>
+      <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>66</v>
+      <c r="A67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>67</v>
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B70" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B69" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B71" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>72</v>
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B74" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>75</v>
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>76</v>
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>77</v>
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>78</v>
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>79</v>
+      <c r="A80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>80</v>
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>81</v>
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B84" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="B83" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>84</v>
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>85</v>
+      <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>86</v>
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>87</v>
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B89" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>90</v>
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>91</v>
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>92</v>
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>93</v>
+      <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="B95" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>96</v>
+      <c r="A97" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>97</v>
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>98</v>
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>99</v>
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>100</v>
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B102" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>103</v>
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>104</v>
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>105</v>
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>106</v>
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>107</v>
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>108</v>
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>109</v>
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>110</v>
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>111</v>
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>112</v>
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>113</v>
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>114</v>
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>115</v>
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>116</v>
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>117</v>
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>118</v>
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>119</v>
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>120</v>
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>121</v>
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>122</v>
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>123</v>
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B126" s="3" t="s">
+      <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="B125" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>126</v>
+      <c r="A127" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>127</v>
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>128</v>
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>129</v>
+      <c r="A130" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>130</v>
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>131</v>
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>132</v>
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B135" s="3" t="s">
+      <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="B134" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>135</v>
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B138" s="3" t="s">
+      <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B139" s="3" t="s">
+      <c r="B137" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="B138" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B142" s="3" t="s">
+      <c r="B140" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="B141" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>142</v>
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>143</v>
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>144</v>
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>145</v>
+      <c r="A146" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>146</v>
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>147</v>
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>148</v>
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>149</v>
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>150</v>
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>151</v>
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>152</v>
+      <c r="A153" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>153</v>
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>154</v>
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>155</v>
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B158" s="3" t="s">
+      <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="B157" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>158</v>
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>159</v>
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>160</v>
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B163" s="3" t="s">
+      <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B164" s="3" t="s">
+      <c r="B162" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="s">
         <v>163</v>
       </c>
+      <c r="B163" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>164</v>
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>165</v>
+      <c r="A166" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B168" s="3" t="s">
+      <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="B167" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>168</v>
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>169</v>
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>170</v>
+      <c r="A171" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>171</v>
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>172</v>
+      <c r="A173" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>173</v>
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>174</v>
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>175</v>
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>176</v>
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>177</v>
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>178</v>
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>179</v>
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>180</v>
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B183" s="3" t="s">
+      <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="B182" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>183</v>
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>184</v>
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>185</v>
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>186</v>
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>187</v>
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>188</v>
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>189</v>
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>190</v>
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B193" s="3" t="s">
+      <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="B192" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>193</v>
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B196" s="3" t="s">
+      <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="B195" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>196</v>
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>197</v>
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>198</v>
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>199</v>
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B202" s="3" t="s">
+      <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="B201" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>202</v>
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>203</v>
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>204</v>
+      <c r="A205" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>205</v>
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B208" s="3" t="s">
+      <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="B207" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>208</v>
+      <c r="A209" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>209</v>
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>210</v>
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>211</v>
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>212</v>
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B215" s="3" t="s">
+      <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="B214" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>215</v>
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B218" s="3" t="s">
+      <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B219" s="3" t="s">
+      <c r="B217" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="3" t="s">
         <v>218</v>
       </c>
+      <c r="B218" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>219</v>
+      <c r="A220" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>220</v>
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>221</v>
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>222</v>
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>223</v>
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>224</v>
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>225</v>
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B228" s="3" t="s">
+      <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="B227" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B230" s="3" t="s">
+      <c r="A229" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="B229" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>230</v>
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>231</v>
+      <c r="A232" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>232</v>
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>233</v>
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>234</v>
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>235</v>
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>236</v>
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>237</v>
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>238</v>
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>239</v>
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>240</v>
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>241</v>
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>242</v>
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B245" s="3" t="s">
+      <c r="A244" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B244" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B247" s="3" t="s">
+      <c r="A246" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="B246" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>247</v>
+      <c r="A248" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>248</v>
+      <c r="A249" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>249</v>
+      <c r="A250" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>250</v>
+      <c r="A251" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>251</v>
+      <c r="A252" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B254" s="3" t="s">
+      <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="B253" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>254</v>
+      <c r="A255" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B257" s="3" t="s">
+      <c r="A256" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B258" s="3" t="s">
+      <c r="B256" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="B257" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B260" s="3" t="s">
+      <c r="A259" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="B259" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B262" s="3" t="s">
+      <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B263" s="3" t="s">
+      <c r="B261" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B264" s="3" t="s">
+      <c r="B262" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B265" s="3" t="s">
+      <c r="B263" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="3" t="s">
         <v>264</v>
       </c>
+      <c r="B264" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B267" s="3" t="s">
+      <c r="A266" s="3" t="s">
         <v>266</v>
       </c>
+      <c r="B266" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>267</v>
+      <c r="A268" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>268</v>
+      <c r="A269" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>269</v>
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>270</v>
+      <c r="A271" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>271</v>
+      <c r="A272" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B274" s="3" t="s">
+      <c r="A273" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B275" s="3" t="s">
+      <c r="B273" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="B274" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>275</v>
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>276</v>
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>277</v>
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B280" s="3" t="s">
+      <c r="A279" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="B279" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B282" s="3" t="s">
+      <c r="A281" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="B281" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>282</v>
+      <c r="A283" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>283</v>
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>284</v>
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>285</v>
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>286</v>
+      <c r="A287" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B289" s="3" t="s">
+      <c r="A288" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B290" s="3" t="s">
+      <c r="B288" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B291" s="3" t="s">
+      <c r="B289" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="3" t="s">
         <v>290</v>
       </c>
+      <c r="B290" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>291</v>
+      <c r="A292" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>292</v>
+      <c r="A293" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>293</v>
+      <c r="A294" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>294</v>
+      <c r="A295" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>295</v>
+      <c r="A296" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>296</v>
+      <c r="A297" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>297</v>
+      <c r="A298" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>298</v>
+      <c r="A299" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>299</v>
+      <c r="A300" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>300</v>
+      <c r="A301" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4171,1212 +4180,1214 @@
   </sheetPr>
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A147" activeCellId="0" sqref="A147:B150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="2" style="1" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="B3" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>305</v>
+      <c r="A5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>306</v>
+      <c r="A6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>308</v>
       </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>309</v>
+      <c r="A9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>310</v>
+      <c r="A10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>311</v>
+      <c r="A11" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>312</v>
+      <c r="A12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>313</v>
+      <c r="A13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>316</v>
+      <c r="A16" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>317</v>
+      <c r="A17" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>318</v>
+      <c r="A18" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="B19" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>321</v>
+      <c r="A21" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>322</v>
+      <c r="A22" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>323</v>
+      <c r="A23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>324</v>
+      <c r="A24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A25" s="3" t="s">
         <v>326</v>
       </c>
+      <c r="B25" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>327</v>
+      <c r="A27" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>328</v>
+      <c r="A28" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>329</v>
+      <c r="A29" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>330</v>
+      <c r="A30" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>331</v>
+      <c r="A31" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>332</v>
+      <c r="A32" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="B33" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>335</v>
       </c>
+      <c r="B34" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="B36" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>338</v>
+      <c r="A38" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>339</v>
+      <c r="A39" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>340</v>
+      <c r="A40" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>341</v>
+      <c r="A41" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>342</v>
+      <c r="A42" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>343</v>
+      <c r="A43" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>344</v>
+      <c r="A44" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>345</v>
+      <c r="A45" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>346</v>
+      <c r="A46" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>347</v>
+      <c r="A47" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>348</v>
+      <c r="A48" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>349</v>
+      <c r="A49" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>350</v>
+      <c r="A50" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>22</v>
+      <c r="A51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>352</v>
+      <c r="A53" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>353</v>
+      <c r="A54" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>354</v>
+      <c r="A55" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>355</v>
+      <c r="A56" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>356</v>
+      <c r="A57" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>357</v>
+      <c r="A58" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>358</v>
+      <c r="A59" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>359</v>
+      <c r="A60" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>360</v>
+      <c r="A61" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>361</v>
+      <c r="A62" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>362</v>
+      <c r="A63" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>363</v>
+      <c r="A64" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>364</v>
+      <c r="A65" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>365</v>
+      <c r="A66" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>366</v>
+      <c r="A67" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>367</v>
+      <c r="A68" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>368</v>
+      <c r="A69" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>369</v>
+      <c r="A70" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>370</v>
+      <c r="A71" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>371</v>
+      <c r="A72" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>372</v>
+      <c r="A73" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>373</v>
+      <c r="A74" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>374</v>
+      <c r="A75" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>375</v>
+      <c r="A76" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>376</v>
+      <c r="A77" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>377</v>
+      <c r="A78" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>378</v>
+      <c r="A79" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>379</v>
+      <c r="A80" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>380</v>
+      <c r="A81" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>381</v>
+      <c r="A82" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>382</v>
+      <c r="A83" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>383</v>
+      <c r="A84" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>384</v>
+      <c r="A85" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>385</v>
+      <c r="A86" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>386</v>
+      <c r="A87" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>387</v>
+      <c r="A88" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>388</v>
+      <c r="A89" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>389</v>
+      <c r="A90" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>390</v>
+      <c r="A91" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>391</v>
+      <c r="A92" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>392</v>
+      <c r="A93" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>393</v>
+      <c r="A94" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>394</v>
+      <c r="A95" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>395</v>
+      <c r="A96" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>396</v>
+      <c r="A97" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>397</v>
+      <c r="A98" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>398</v>
+      <c r="A99" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>399</v>
+      <c r="A100" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>400</v>
+      <c r="A101" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="A102" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="B102" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>403</v>
+      <c r="A104" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>404</v>
+      <c r="A105" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>405</v>
+      <c r="A106" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>406</v>
+      <c r="A107" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>407</v>
+      <c r="A108" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>408</v>
+      <c r="A109" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>409</v>
+      <c r="A110" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>410</v>
+      <c r="A111" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>411</v>
+      <c r="A112" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>412</v>
+      <c r="A113" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>413</v>
+      <c r="A114" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>414</v>
+      <c r="A115" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>415</v>
+      <c r="A116" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>416</v>
+      <c r="A117" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>417</v>
+      <c r="A118" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>418</v>
+      <c r="A119" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>419</v>
+      <c r="A120" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>420</v>
+      <c r="A121" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>421</v>
+      <c r="A122" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>422</v>
+      <c r="A123" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>423</v>
+      <c r="A124" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>424</v>
+      <c r="A125" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>425</v>
+      <c r="A126" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>426</v>
+      <c r="A127" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>427</v>
+      <c r="A128" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>428</v>
+      <c r="A129" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>429</v>
+      <c r="A130" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>430</v>
+      <c r="A131" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>431</v>
+      <c r="A132" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>432</v>
+      <c r="A133" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>433</v>
+      <c r="A134" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>434</v>
+      <c r="A135" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>435</v>
+      <c r="A136" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>436</v>
+      <c r="A137" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>437</v>
+      <c r="A138" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>438</v>
+      <c r="A139" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="A140" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="B140" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>441</v>
+      <c r="A142" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>442</v>
+      <c r="A143" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>443</v>
+      <c r="A144" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>444</v>
+      <c r="A145" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>445</v>
+      <c r="A146" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>446</v>
+      <c r="A147" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>447</v>
+      <c r="A148" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>448</v>
+      <c r="A149" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>449</v>
+      <c r="A150" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
